--- a/Account Opening Tables.xlsx
+++ b/Account Opening Tables.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91988\Desktop\Jyotsna\Java Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A739C1ED-19BC-4C05-8A35-B83963D646A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A563885-787D-4032-84C1-8CCC8A86DB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D3BAAD12-5E0F-42EB-B94A-4AA539E2EF64}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{D3BAAD12-5E0F-42EB-B94A-4AA539E2EF64}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tables" sheetId="1" r:id="rId1"/>
+    <sheet name="Process Flow" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="69">
   <si>
     <t>Customer Id</t>
   </si>
@@ -108,9 +108,6 @@
     <t>ATM Card</t>
   </si>
   <si>
-    <t>Net Banking</t>
-  </si>
-  <si>
     <t>Request</t>
   </si>
   <si>
@@ -229,13 +226,28 @@
   </si>
   <si>
     <t>CHECK(&gt;=)</t>
+  </si>
+  <si>
+    <t>CHECK(valid)</t>
+  </si>
+  <si>
+    <t>One to Many</t>
+  </si>
+  <si>
+    <t>One to One</t>
+  </si>
+  <si>
+    <t>NetBanking</t>
+  </si>
+  <si>
+    <t>ATM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +268,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -296,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -304,6 +323,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -924,16 +944,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84F940B-97D1-4E67-8FDB-8A508F439093}">
-  <dimension ref="B5:V29"/>
+  <dimension ref="A5:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.21875" bestFit="1" customWidth="1"/>
@@ -954,12 +974,12 @@
     <col min="24" max="24" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -970,430 +990,486 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="1"/>
       <c r="J7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L7" s="1"/>
       <c r="N7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L8" s="1"/>
       <c r="N8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F9" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L9" s="1"/>
       <c r="N9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="F10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L10" s="1"/>
       <c r="N10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L11" s="1"/>
       <c r="N11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L12" s="1"/>
       <c r="N12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="N13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L14" s="1"/>
       <c r="N14" s="5" t="s">
         <v>0</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="6:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F17" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="6:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" s="1"/>
       <c r="J18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="6:22" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" s="1"/>
       <c r="N19" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="6:22" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
       <c r="F20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" s="1"/>
       <c r="N20" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="6:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="6:22" x14ac:dyDescent="0.3">
-      <c r="F22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>49</v>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="F22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="6:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F23" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>0</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="6:22" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L24" s="1"/>
       <c r="V24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="6:22" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="J25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="6:22" x14ac:dyDescent="0.3">
-      <c r="J26" s="1" t="s">
+      <c r="K26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="6:22" x14ac:dyDescent="0.3">
-      <c r="J27" s="1" t="s">
+      <c r="K27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="6:22" x14ac:dyDescent="0.3">
-      <c r="J28" s="1" t="s">
+      <c r="K28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J29" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="6:22" x14ac:dyDescent="0.3">
-      <c r="J29" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="K29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1415,32 +1491,32 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
